--- a/各作品詳細.xlsx
+++ b/各作品詳細.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizum\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Github.io\mushipan0929.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E68CC-ACDC-41DA-A698-432843C8E0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC93960-9B2F-4C4C-B3A1-608C55722238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43470738-1F7F-4868-9F31-BCB641819C58}"/>
+    <workbookView xWindow="-24915" yWindow="4410" windowWidth="12420" windowHeight="8145" xr2:uid="{43470738-1F7F-4868-9F31-BCB641819C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>マクラウォーズ</t>
     <phoneticPr fontId="1"/>
@@ -94,11 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FPS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,13 +143,6 @@
     <t>5か月</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>260時間</t>
-    <rPh sb="3" eb="5">
-      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -289,11 +277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オンライン対戦型ターンストラテジー</t>
     <rPh sb="5" eb="8">
       <t>タイセンガタ</t>
@@ -357,86 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>拘った/苦労した点(3-4行)</t>
-    <rPh sb="4" eb="6">
-      <t>クロウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃動作 / スキル管理 / UI管理
-リザルト画面作成 / シーン管理</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歪んだ童話の世界を舞台に、美女と野獣が戦う2Dアクションゲーム。
-それぞれ異なるスキルを持つ2人を切り替えステージを進めていく。</t>
-    <rPh sb="0" eb="1">
-      <t>ユガ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ドウワ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ビジョ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヤジュウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タタカ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャラクター移動管理
 UI管理 / カードアニメーション</t>
     <rPh sb="6" eb="8">
@@ -448,6 +351,794 @@
     <rPh sb="13" eb="15">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターにLive2Dを使用していたが
+描画順がおかしくなったり、不透明度が反映されなかったりトラブルが相次いだ点。
+特にアニメーションが正しくループしない問題には頭を抱えました。</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>アイツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>カカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装箇所はそれ程難しい物でも無かったが
+チーム全体の報連相不足により、書いたコードが互換性不足により
+やり直しになる機会が多かった点。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ホウレンソウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ブソク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ゴカンセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ブソク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苦労した点(3-4行)</t>
+    <rPh sb="0" eb="2">
+      <t>クロウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワンポイント(2-3行)</t>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>310時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">リアルタイム制のオンライン対戦将棋ゲーム。
+ターン制、グリッド制は撤廃されている点が特徴。
+経過時間によって蓄積するポイントを用いて移動したり
+駒を敵駒に被せ部分的に破壊したり、破壊された駒から放出されるアイテムを集め召喚出来たりとスピード/爽快感を重視しまるで別のゲームの様な感覚になります。
+</t>
+    <rPh sb="25" eb="26">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テッパイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>チクセキ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ブブンテキ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ホウシュツ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ソウカイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジュウシ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歪んだ童話の世界を舞台に、美女と野獣が戦う2Dアクションゲーム。
+キャッチコピーは「歪んだ童話世界を美女と野獣で切り抜け！」
+魔法を用いて遠距離攻撃が出来る魔法使いである美女と
+剣を振るい魔法を使うリソースを回復させる野獣の2人を
+使い分けステージを攻略していく。</t>
+    <rPh sb="42" eb="43">
+      <t>ユガ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウワ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ビジョ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヤジュウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>マホウツカ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ビジョ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヤジュウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>コウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃動作 / スキル管理 / 戦闘中UI管理
+リザルト画面作成 / シーン管理</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>セントウチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+画面分割プレイ+ステージが狭くLOD実装が難しい為
+レンダリング負荷が掛かり60FPSを維持する事が困難だった点。
+なるべくスクリプト側の処理をシンプルにし
+ライティングの品質を下げる事で60FPSを維持することに成功。
+</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コンナン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">マップ上に配置されたクリスタルを守るストラテジーゲーム。
+グリッド状のマップに配置された相手のクリスタルを奪取すると勝利となる。
+各プレイヤーは罠をしかける魔法使いと罠から魔法使いを守る高耐久のゴーレムの2キャラを操り進めていく。
+</t>
+    <rPh sb="33" eb="34">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ダッシュ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>マホウツカ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="86" eb="89">
+      <t>マホウツカ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>タイキュウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>アヤツ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歪んだ童話を舞台に、美女と野獣が戦う2Dアクションゲーム。
+それぞれ異なるスキルを持つ2人を切り替え進めていく。</t>
+    <rPh sb="0" eb="1">
+      <t>ユガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ビジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヤジュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修学旅行中の学生間で行われる対戦枕投げゲーム。
+相手に枕を当て体力を削る事で敵を脱落させることが出来る。
+ただ枕を投げ合うだけでは無く
+自身に有利な能力を得ることが出来るアイテムが配置されたり先生が見回りに来る際には布団に入り込み説教を免れたりと 様々な要素がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵AIを実装する際に機械的な動きに見せたくない為
+自身の状況に応じ行動パターンを変えるなどして
+人間味あるAIに調整しました。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>キカイテキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニンゲンミ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただスピード感のあるゲームではなく
+移動/召喚後の駒に移動不能時間を与える事で
+駒同士の連携を意識した戦略的要素も残してあります。</t>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用ツール</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unity (2019.2.21f1) / Github Desktop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unity (2019.2.21f1) / SourceTree
+Slack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unity (2020.2.5f1) / SourceTree
+Slack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI関係のクラスが肥大化していた為一度細分化し
+管理クラスを作り、流れを追いやすくしました。</t>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>サイブンカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン部分の実装は初で度重なる同期ズレや動機頻度の削減を行わなければならず、一度ネットワーク関係のシステムを作り直しました。
+この制作過程でテンプレートを作れたので、今後のゲーム制作に活かしていく予定です。</t>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タビカサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初のゲーム制作であった為、なるべく同じ処理を書かない
+無駄に変数を公開しない、一目見て用途が分かる名称を付ける等
+今後のゲーム制作において大事な要素を意識掛けて実装しました。</t>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒトメ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒトメ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unity (2020.2.5f1) / SourceTree
+Photon Unity Networking 2 / PlantUML
+Adobe Photoshop / Maya</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,7 +1230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,9 +1251,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -881,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42250A88-7082-4219-95C6-AC93C24300F8}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -913,50 +1601,50 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -964,44 +1652,50 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
@@ -1009,36 +1703,76 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="157.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="94.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="63" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
